--- a/Files/Tables/Decorations/Exotic/Exotic Decorations.xlsx
+++ b/Files/Tables/Decorations/Exotic/Exotic Decorations.xlsx
@@ -39,9 +39,6 @@
     <t>SKILL REQUIREMENTS</t>
   </si>
   <si>
-    <t>BONUSES</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">This file will provide an overview of the </t>
     </r>
@@ -56,6 +53,9 @@
       </rPr>
       <t>EXOTIC DECORATIONS</t>
     </r>
+  </si>
+  <si>
+    <t>BONUS(ES)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J18" sqref="J18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,12 +479,13 @@
     <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -521,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
